--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_386__Reeval_Sobol_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_386__Reeval_Sobol_Modell_1.2.xlsx
@@ -6118,19 +6118,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>3.790824413299561</c:v>
+                  <c:v>3.790833234786987</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>80.029296875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89.10499572753906</c:v>
+                  <c:v>89.10503387451172</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.09938926249742508</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87.88364410400391</c:v>
+                  <c:v>87.88363647460938</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>89.02015686035156</c:v>
@@ -6148,40 +6148,40 @@
                   <c:v>0.09938926249742508</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49.60865783691406</c:v>
+                  <c:v>49.60863876342773</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>98.96482086181641</c:v>
+                  <c:v>98.96482849121094</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>68.82512664794922</c:v>
+                  <c:v>68.82513427734375</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>97.79389190673828</c:v>
+                  <c:v>97.79388427734375</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.09938926249742508</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43.27944946289062</c:v>
+                  <c:v>43.27944183349609</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.09938926249742508</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>97.02899932861328</c:v>
+                  <c:v>97.02900695800781</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>36.34934234619141</c:v>
+                  <c:v>36.34933853149414</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.09938926249742508</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>87.98365020751953</c:v>
+                  <c:v>87.98362731933594</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>96.33489990234375</c:v>
+                  <c:v>96.33490753173828</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>89.80517578125</c:v>
@@ -6193,13 +6193,13 @@
                   <c:v>0.09938926249742508</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>83.57830047607422</c:v>
+                  <c:v>83.57830810546875</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>107.3009567260742</c:v>
+                  <c:v>107.3009796142578</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>77.33274841308594</c:v>
+                  <c:v>77.33274078369141</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.09938926249742508</c:v>
@@ -6223,10 +6223,10 @@
                   <c:v>0.09938926249742508</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>102.3587951660156</c:v>
+                  <c:v>102.3587799072266</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44.24757385253906</c:v>
+                  <c:v>44.24755859375</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.09938926249742508</c:v>
@@ -6238,7 +6238,7 @@
                   <c:v>98.95557403564453</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>33.48590087890625</c:v>
+                  <c:v>33.48591995239258</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>91.54058837890625</c:v>
@@ -6247,10 +6247,10 @@
                   <c:v>0.09938926249742508</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>20.92489242553711</c:v>
+                  <c:v>20.92488670349121</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.9539952278137207</c:v>
+                  <c:v>0.9540024995803833</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>2.128906965255737</c:v>
@@ -6268,31 +6268,31 @@
                   <c:v>93.12405395507812</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>59.87819290161133</c:v>
+                  <c:v>59.87820053100586</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>7.326214790344238</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>78.26734924316406</c:v>
+                  <c:v>78.26734161376953</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0.09938926249742508</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7.2275390625</c:v>
+                  <c:v>7.227545261383057</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>61.28813171386719</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>82.85221862792969</c:v>
+                  <c:v>82.85222625732422</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.9101092219352722</c:v>
+                  <c:v>0.9101096987724304</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.015224456787109</c:v>
+                  <c:v>9.015218734741211</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>86.6593017578125</c:v>
@@ -6307,10 +6307,10 @@
                   <c:v>102.1062622070312</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.162615299224854</c:v>
+                  <c:v>1.16261625289917</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>86.78571319580078</c:v>
+                  <c:v>86.78572845458984</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>0.09938926249742508</c:v>
@@ -6322,43 +6322,43 @@
                   <c:v>0.09938926249742508</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>55.05942153930664</c:v>
+                  <c:v>55.05943298339844</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>84.81355285644531</c:v>
+                  <c:v>84.81354522705078</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>100.241081237793</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>86.96364593505859</c:v>
+                  <c:v>86.96366119384766</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>97.03125762939453</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>16.25436782836914</c:v>
+                  <c:v>16.25439071655273</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>94.21510314941406</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>79.66419219970703</c:v>
+                  <c:v>79.66420745849609</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>96.01106262207031</c:v>
+                  <c:v>96.01105499267578</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>97.92499542236328</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>86.3289794921875</c:v>
+                  <c:v>86.32899475097656</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>98.23785400390625</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8.349959373474121</c:v>
+                  <c:v>8.349970817565918</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>0.09938926249742508</c:v>
@@ -6370,22 +6370,22 @@
                   <c:v>83.26686096191406</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>96.21952056884766</c:v>
+                  <c:v>96.21950531005859</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>95.87190246582031</c:v>
+                  <c:v>95.87189483642578</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>0.09938926249742508</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.286282539367676</c:v>
+                  <c:v>4.286283493041992</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>0.09938926249742508</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>85.67208862304688</c:v>
+                  <c:v>85.67212677001953</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>96.89415740966797</c:v>
@@ -6394,19 +6394,19 @@
                   <c:v>0.09938926249742508</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>22.42908096313477</c:v>
+                  <c:v>22.42907524108887</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>86.92366027832031</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>32.87724304199219</c:v>
+                  <c:v>32.87726593017578</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>31.68747711181641</c:v>
+                  <c:v>31.68744468688965</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>85.0079345703125</c:v>
+                  <c:v>85.00792694091797</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>98.07844543457031</c:v>
@@ -6424,7 +6424,7 @@
                   <c:v>0.09938926249742508</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>113.8856582641602</c:v>
+                  <c:v>113.8856430053711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.790824413299561</v>
+        <v>3.790833234786987</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>89.10499572753906</v>
+        <v>89.10503387451172</v>
       </c>
       <c r="G4">
         <v>155</v>
@@ -7247,7 +7247,7 @@
         <v>94.71559999999999</v>
       </c>
       <c r="F6">
-        <v>87.88364410400391</v>
+        <v>87.88363647460938</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7391,7 +7391,7 @@
         <v>70.80159999999999</v>
       </c>
       <c r="F12">
-        <v>49.60865783691406</v>
+        <v>49.60863876342773</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>84.36620000000001</v>
       </c>
       <c r="F13">
-        <v>98.96482086181641</v>
+        <v>98.96482849121094</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>68.82512664794922</v>
+        <v>68.82513427734375</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7451,7 +7451,7 @@
         <v>93.33920000000001</v>
       </c>
       <c r="F15">
-        <v>97.79389190673828</v>
+        <v>97.79388427734375</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7491,7 +7491,7 @@
         <v>26.9346</v>
       </c>
       <c r="F17">
-        <v>43.27944946289062</v>
+        <v>43.27944183349609</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>95.9807</v>
       </c>
       <c r="F19">
-        <v>97.02899932861328</v>
+        <v>97.02900695800781</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>34.9115</v>
       </c>
       <c r="F20">
-        <v>36.34934234619141</v>
+        <v>36.34933853149414</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>91.50530000000001</v>
       </c>
       <c r="F22">
-        <v>87.98365020751953</v>
+        <v>87.98362731933594</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>98.18859999999999</v>
       </c>
       <c r="F23">
-        <v>96.33489990234375</v>
+        <v>96.33490753173828</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>88.40260000000001</v>
       </c>
       <c r="F27">
-        <v>83.57830047607422</v>
+        <v>83.57830810546875</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>93.2831</v>
       </c>
       <c r="F28">
-        <v>107.3009567260742</v>
+        <v>107.3009796142578</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>69.5461</v>
       </c>
       <c r="F29">
-        <v>77.33274841308594</v>
+        <v>77.33274078369141</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>98.208</v>
       </c>
       <c r="F37">
-        <v>102.3587951660156</v>
+        <v>102.3587799072266</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>44.24757385253906</v>
+        <v>44.24755859375</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>56.5406</v>
       </c>
       <c r="F42">
-        <v>33.48590087890625</v>
+        <v>33.48591995239258</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>20.92489242553711</v>
+        <v>20.92488670349121</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0.9539952278137207</v>
+        <v>0.9540024995803833</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>47.7787</v>
       </c>
       <c r="F52">
-        <v>59.87819290161133</v>
+        <v>59.87820053100586</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>97.72280000000001</v>
       </c>
       <c r="F54">
-        <v>78.26734924316406</v>
+        <v>78.26734161376953</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>42.5481</v>
       </c>
       <c r="F56">
-        <v>7.2275390625</v>
+        <v>7.227545261383057</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>89.467</v>
       </c>
       <c r="F58">
-        <v>82.85221862792969</v>
+        <v>82.85222625732422</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0.9101092219352722</v>
+        <v>0.9101096987724304</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>34.2752</v>
       </c>
       <c r="F60">
-        <v>9.015224456787109</v>
+        <v>9.015218734741211</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>31.0072</v>
       </c>
       <c r="F65">
-        <v>1.162615299224854</v>
+        <v>1.16261625289917</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>93.4378</v>
       </c>
       <c r="F66">
-        <v>86.78571319580078</v>
+        <v>86.78572845458984</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>57.4947</v>
       </c>
       <c r="F70">
-        <v>55.05942153930664</v>
+        <v>55.05943298339844</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>94.7551</v>
       </c>
       <c r="F71">
-        <v>84.81355285644531</v>
+        <v>84.81354522705078</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>89.2906</v>
       </c>
       <c r="F73">
-        <v>86.96364593505859</v>
+        <v>86.96366119384766</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>16.25436782836914</v>
+        <v>16.25439071655273</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>79.66419219970703</v>
+        <v>79.66420745849609</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>97.7385</v>
       </c>
       <c r="F78">
-        <v>96.01106262207031</v>
+        <v>96.01105499267578</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>90.54819999999999</v>
       </c>
       <c r="F80">
-        <v>86.3289794921875</v>
+        <v>86.32899475097656</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>59.3491</v>
       </c>
       <c r="F82">
-        <v>8.349959373474121</v>
+        <v>8.349970817565918</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>95.37090000000001</v>
       </c>
       <c r="F86">
-        <v>96.21952056884766</v>
+        <v>96.21950531005859</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>91.53700000000001</v>
       </c>
       <c r="F87">
-        <v>95.87190246582031</v>
+        <v>95.87189483642578</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>4.286282539367676</v>
+        <v>4.286283493041992</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>91.271</v>
       </c>
       <c r="F91">
-        <v>85.67208862304688</v>
+        <v>85.67212677001953</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>22.42908096313477</v>
+        <v>22.42907524108887</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9071,7 +9071,7 @@
         <v>77.41670000000001</v>
       </c>
       <c r="F96">
-        <v>32.87724304199219</v>
+        <v>32.87726593017578</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>31.68747711181641</v>
+        <v>31.68744468688965</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9111,7 +9111,7 @@
         <v>91.6399</v>
       </c>
       <c r="F98">
-        <v>85.0079345703125</v>
+        <v>85.00792694091797</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9231,7 +9231,7 @@
         <v>76.82470000000001</v>
       </c>
       <c r="F104">
-        <v>113.8856582641602</v>
+        <v>113.8856430053711</v>
       </c>
     </row>
     <row r="105" spans="1:6">
